--- a/Tools/bin/GeneratorCSV/xls_config/system/_CommonData.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/_CommonData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,123 +732,147 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -852,13 +880,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -912,8 +940,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E45" t="s">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
         <v>4</v>
       </c>
     </row>
@@ -922,23 +950,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E64" t="s">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
         <v>4</v>
       </c>
     </row>
@@ -947,23 +975,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E151" t="s">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E147" t="s">
         <v>4</v>
       </c>
     </row>
@@ -984,6 +1012,11 @@
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E156" t="s">
         <v>4</v>
       </c>
     </row>
